--- a/biology/Botanique/Sphaerocoryne_affinis/Sphaerocoryne_affinis.xlsx
+++ b/biology/Botanique/Sphaerocoryne_affinis/Sphaerocoryne_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphaerocoryne affinis (synonymes notables : Mitrella mesnyi ) [1] est une espèce de plante à fleurs de la famille des corossols, Annonaceae. Les fleurs parfumées de Sphaerocoryne affinis sont très appréciées au Cambodge et en Thaïlande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphaerocoryne affinis (synonymes notables : Mitrella mesnyi )  est une espèce de plante à fleurs de la famille des corossols, Annonaceae. Les fleurs parfumées de Sphaerocoryne affinis sont très appréciées au Cambodge et en Thaïlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante a une fleur blanche jaunâtre avec une seule feuille alterne. Il a une hauteur de 8 à 12 m et un diamètre de tige de 20–30 cm. Il dégage une odeur attrayante en fin d'après-midi et en soirée, un parfum distinctif qui peut être senti de loin.
 </t>
@@ -542,10 +556,12 @@
           <t>Importance culturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rumduol ou romduol ( khmer : រំដួល), comme on l'appelle au Cambodge et par le Khmer, est souvent planté dans les jardins et les parcs car il est apprécié pour son parfum. Les fleurs sont utilisées pour fabriquer une cire à lèvres parfumée appelée kramuon rumduol ( khmer : ក្រមួនរំដួល   )[2]. Plusieurs régions du Cambodge portent le nom de cette fleur, comme le district de Romdoul et Ou Rumduol.
-Dans un décret royal de 2005 du roi Sihamoni du Cambodge, le rumduol a été proclamé la fleur nationale du Cambodge, mais ce décret fait référence à un synonyme invalide de ce taxon, Mitrella mesnyi[2]. Le rumduol est souvent appelé Popowia aberrans sur les panneaux botaniques et comme l'a noté Headley dans le dictionnaire cambodgien-anglais[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rumduol ou romduol ( khmer : រំដួល), comme on l'appelle au Cambodge et par le Khmer, est souvent planté dans les jardins et les parcs car il est apprécié pour son parfum. Les fleurs sont utilisées pour fabriquer une cire à lèvres parfumée appelée kramuon rumduol ( khmer : ក្រមួនរំដួល   ). Plusieurs régions du Cambodge portent le nom de cette fleur, comme le district de Romdoul et Ou Rumduol.
+Dans un décret royal de 2005 du roi Sihamoni du Cambodge, le rumduol a été proclamé la fleur nationale du Cambodge, mais ce décret fait référence à un synonyme invalide de ce taxon, Mitrella mesnyi. Le rumduol est souvent appelé Popowia aberrans sur les panneaux botaniques et comme l'a noté Headley dans le dictionnaire cambodgien-anglais,.
 </t>
         </is>
       </c>
